--- a/data/iron_ar/iron_ar_data.xlsx
+++ b/data/iron_ar/iron_ar_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/data/iron_ar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9D4CD-9020-054D-B28E-C1E9FAB4F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C61F3F0-E475-674F-9EC6-5BCB4D2757BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{3B2593CB-5368-E143-BC0C-0A1BE4720D4C}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
